--- a/config_11.23/shoping_config.xlsx
+++ b/config_11.23/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="2109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="2129">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7957,10 +7957,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>绝地反击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神秘海域V0-V2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8013,10 +8009,6 @@
     <t>深海沉船V9-V12</t>
   </si>
   <si>
-    <t>"100-500万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"500-1000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8029,31 +8021,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"500-1000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000-2000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"3000-7500万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000-2000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3000-7500万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000-12000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8083,15 +8051,133 @@
     </r>
   </si>
   <si>
+    <t>{1010000,1100000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5100000,5400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{30600000,32400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{51000000,54000000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift3" }</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift4" }</t>
+  </si>
+  <si>
+    <t>"60万金币","6万小游戏币",</t>
+  </si>
+  <si>
+    <t>"100万金币","12万小游戏币",</t>
+  </si>
+  <si>
+    <t>"180万金币","18万小游戏币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin"</t>
+  </si>
+  <si>
+    <t>"100-500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500-1000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{1010000,1100000,100}</t>
+    <t>5000000,10000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{5100000,5400000,100}</t>
+    <t>"1000-2000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8099,31 +8185,67 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>{20400000,21600000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3000-7500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>{30600000,32400000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{10200000,10800000,100}</t>
+    <t>30000000,75000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{10200000,10800000,100}</t>
+    <t>30000000,75000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{20400000,21600000,100}</t>
+    <t>20000000,50000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{30600000,32400000,100}</t>
+    <t>"5000-12000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{20400000,21600000,100}</t>
+    <t>"5000-12000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8131,30 +8253,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "another_day_gift1" }</t>
+    <t>50000000,120000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "another_day_gift2" }</t>
+    <t>50000000,120000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "another_day_gift3" }</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "another_day_gift4" }</t>
-  </si>
-  <si>
-    <t>"60万金币","6万小游戏币",</t>
-  </si>
-  <si>
-    <t>"100万金币","12万小游戏币",</t>
-  </si>
-  <si>
-    <t>"180万金币","18万小游戏币",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin"</t>
   </si>
 </sst>
 </file>
@@ -8413,7 +8517,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8759,6 +8863,9 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14654,10 +14761,10 @@
   <dimension ref="A1:AO772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W669" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W756" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA680" sqref="AA680"/>
+      <selection pane="bottomRight" activeCell="A757" sqref="A757:XFD772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -57961,7 +58068,7 @@
         <v>1538</v>
       </c>
       <c r="K671" s="91" t="s">
-        <v>2105</v>
+        <v>2091</v>
       </c>
       <c r="M671" s="91">
         <v>-31</v>
@@ -57979,7 +58086,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S671" s="88" t="s">
         <v>1560</v>
@@ -58032,7 +58139,7 @@
         <v>1538</v>
       </c>
       <c r="K672" s="91" t="s">
-        <v>2106</v>
+        <v>2092</v>
       </c>
       <c r="M672" s="91">
         <v>-31</v>
@@ -58050,7 +58157,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S672" s="88" t="s">
         <v>1562</v>
@@ -58103,7 +58210,7 @@
         <v>1538</v>
       </c>
       <c r="K673" s="91" t="s">
-        <v>2107</v>
+        <v>2093</v>
       </c>
       <c r="M673" s="91">
         <v>-31</v>
@@ -58121,7 +58228,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S673" s="88" t="s">
         <v>1564</v>
@@ -58192,7 +58299,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S674" s="88" t="s">
         <v>1547</v>
@@ -58263,7 +58370,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S675" s="88" t="s">
         <v>1549</v>
@@ -58334,7 +58441,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S676" s="88" t="s">
         <v>1551</v>
@@ -58405,7 +58512,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S677" s="88" t="s">
         <v>1551</v>
@@ -58476,7 +58583,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S678" s="88" t="s">
         <v>1554</v>
@@ -58547,7 +58654,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S679" s="88" t="s">
         <v>1556</v>
@@ -58618,7 +58725,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S680" s="88" t="s">
         <v>1554</v>
@@ -58689,7 +58796,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S681" s="88" t="s">
         <v>1556</v>
@@ -58760,7 +58867,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="91" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="S682" s="88" t="s">
         <v>1558</v>
@@ -63865,13 +63972,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="35" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J757" s="35" t="s">
         <v>2060</v>
       </c>
-      <c r="J757" s="35" t="s">
-        <v>2061</v>
-      </c>
       <c r="K757" s="35" t="s">
-        <v>2077</v>
+        <v>2095</v>
       </c>
       <c r="M757" s="35">
         <v>-31</v>
@@ -63888,7 +63995,7 @@
       <c r="Q757" s="35">
         <v>1000</v>
       </c>
-      <c r="X757" s="84" t="s">
+      <c r="X757" s="35" t="s">
         <v>1889</v>
       </c>
       <c r="Y757" s="35">
@@ -63904,10 +64011,13 @@
         <v>92</v>
       </c>
       <c r="AC757" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD757" s="35" t="s">
-        <v>2090</v>
+        <v>2081</v>
+      </c>
+      <c r="AE757" s="115" t="s">
+        <v>2096</v>
       </c>
       <c r="AI757" s="35">
         <v>1</v>
@@ -63933,13 +64043,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J758" s="35" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="K758" s="35" t="s">
-        <v>2078</v>
+        <v>2097</v>
       </c>
       <c r="M758" s="35">
         <v>-31</v>
@@ -63951,13 +64061,13 @@
         <v>0</v>
       </c>
       <c r="P758" s="35" t="s">
-        <v>1848</v>
+        <v>2098</v>
       </c>
       <c r="Q758" s="35">
         <v>5000</v>
       </c>
-      <c r="X758" s="84" t="s">
-        <v>1889</v>
+      <c r="X758" s="35" t="s">
+        <v>2099</v>
       </c>
       <c r="Y758" s="35">
         <v>99999999</v>
@@ -63972,10 +64082,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="35" t="s">
-        <v>2089</v>
+        <v>2100</v>
       </c>
       <c r="AD758" s="35" t="s">
-        <v>2091</v>
+        <v>2082</v>
+      </c>
+      <c r="AE758" s="115" t="s">
+        <v>2101</v>
       </c>
       <c r="AI758" s="35">
         <v>1</v>
@@ -64001,13 +64114,13 @@
         <v>1</v>
       </c>
       <c r="G759" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J759" s="35" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="K759" s="35" t="s">
-        <v>2079</v>
+        <v>2102</v>
       </c>
       <c r="M759" s="35">
         <v>-31</v>
@@ -64024,7 +64137,7 @@
       <c r="Q759" s="35">
         <v>9800</v>
       </c>
-      <c r="X759" s="84" t="s">
+      <c r="X759" s="35" t="s">
         <v>1889</v>
       </c>
       <c r="Y759" s="35">
@@ -64040,10 +64153,13 @@
         <v>94</v>
       </c>
       <c r="AC759" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD759" s="35" t="s">
-        <v>2092</v>
+        <v>2083</v>
+      </c>
+      <c r="AE759" s="115" t="s">
+        <v>2103</v>
       </c>
       <c r="AI759" s="35">
         <v>1</v>
@@ -64069,13 +64185,13 @@
         <v>1</v>
       </c>
       <c r="G760" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J760" s="35" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="K760" s="35" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="M760" s="35">
         <v>-31</v>
@@ -64087,13 +64203,13 @@
         <v>0</v>
       </c>
       <c r="P760" s="35" t="s">
-        <v>1848</v>
+        <v>2104</v>
       </c>
       <c r="Q760" s="35">
         <v>19800</v>
       </c>
-      <c r="X760" s="84" t="s">
-        <v>1889</v>
+      <c r="X760" s="35" t="s">
+        <v>2105</v>
       </c>
       <c r="Y760" s="35">
         <v>99999999</v>
@@ -64108,10 +64224,13 @@
         <v>95</v>
       </c>
       <c r="AC760" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD760" s="35" t="s">
-        <v>2093</v>
+        <v>2084</v>
+      </c>
+      <c r="AE760" s="115" t="s">
+        <v>2106</v>
       </c>
       <c r="AI760" s="35">
         <v>1</v>
@@ -64137,13 +64256,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="35" t="s">
-        <v>2060</v>
+        <v>2107</v>
       </c>
       <c r="J761" s="35" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="K761" s="35" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="M761" s="35">
         <v>-31</v>
@@ -64160,8 +64279,8 @@
       <c r="Q761" s="35">
         <v>5000</v>
       </c>
-      <c r="X761" s="84" t="s">
-        <v>2088</v>
+      <c r="X761" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y761" s="35">
         <v>99999999</v>
@@ -64176,10 +64295,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD761" s="35" t="s">
-        <v>2091</v>
+        <v>2082</v>
+      </c>
+      <c r="AE761" s="115" t="s">
+        <v>2101</v>
       </c>
       <c r="AI761" s="35">
         <v>1</v>
@@ -64205,13 +64327,13 @@
         <v>1</v>
       </c>
       <c r="G762" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J762" s="35" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="K762" s="35" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="M762" s="35">
         <v>-31</v>
@@ -64223,13 +64345,13 @@
         <v>0</v>
       </c>
       <c r="P762" s="35" t="s">
-        <v>1848</v>
+        <v>2108</v>
       </c>
       <c r="Q762" s="35">
         <v>9800</v>
       </c>
-      <c r="X762" s="84" t="s">
-        <v>2088</v>
+      <c r="X762" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y762" s="35">
         <v>99999999</v>
@@ -64244,10 +64366,13 @@
         <v>93</v>
       </c>
       <c r="AC762" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD762" s="35" t="s">
-        <v>2095</v>
+        <v>2109</v>
+      </c>
+      <c r="AE762" s="115" t="s">
+        <v>2110</v>
       </c>
       <c r="AI762" s="35">
         <v>1</v>
@@ -64273,13 +64398,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J763" s="35" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K763" s="35" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="M763" s="35">
         <v>-31</v>
@@ -64297,8 +64422,8 @@
         <v>19800</v>
       </c>
       <c r="R763" s="107"/>
-      <c r="X763" s="84" t="s">
-        <v>2088</v>
+      <c r="X763" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y763" s="35">
         <v>99999999</v>
@@ -64313,10 +64438,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD763" s="35" t="s">
-        <v>2097</v>
+        <v>2112</v>
+      </c>
+      <c r="AE763" s="115" t="s">
+        <v>2114</v>
       </c>
       <c r="AI763" s="35">
         <v>1</v>
@@ -64342,13 +64470,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J764" s="35" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K764" s="35" t="s">
-        <v>2084</v>
+        <v>2116</v>
       </c>
       <c r="M764" s="35">
         <v>-31</v>
@@ -64360,14 +64488,14 @@
         <v>0</v>
       </c>
       <c r="P764" s="35" t="s">
-        <v>1848</v>
+        <v>2098</v>
       </c>
       <c r="Q764" s="35">
         <v>29800</v>
       </c>
       <c r="R764" s="107"/>
-      <c r="X764" s="84" t="s">
-        <v>2088</v>
+      <c r="X764" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y764" s="35">
         <v>99999999</v>
@@ -64382,10 +64510,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="35" t="s">
-        <v>2089</v>
+        <v>2119</v>
       </c>
       <c r="AD764" s="35" t="s">
-        <v>2098</v>
+        <v>2085</v>
+      </c>
+      <c r="AE764" s="115" t="s">
+        <v>2121</v>
       </c>
       <c r="AI764" s="35">
         <v>1</v>
@@ -64411,13 +64542,13 @@
         <v>1</v>
       </c>
       <c r="G765" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J765" s="35" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K765" s="35" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
       <c r="M765" s="35">
         <v>-31</v>
@@ -64429,13 +64560,13 @@
         <v>0</v>
       </c>
       <c r="P765" s="35" t="s">
-        <v>1848</v>
+        <v>2098</v>
       </c>
       <c r="Q765" s="35">
         <v>9800</v>
       </c>
-      <c r="X765" s="84" t="s">
-        <v>2088</v>
+      <c r="X765" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y765" s="35">
         <v>99999999</v>
@@ -64450,10 +64581,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD765" s="35" t="s">
-        <v>2096</v>
+        <v>2109</v>
+      </c>
+      <c r="AE765" s="115" t="s">
+        <v>2103</v>
       </c>
       <c r="AI765" s="35">
         <v>1</v>
@@ -64479,13 +64613,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J766" s="35" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K766" s="35" t="s">
-        <v>2082</v>
+        <v>2102</v>
       </c>
       <c r="M766" s="35">
         <v>-31</v>
@@ -64502,8 +64636,8 @@
       <c r="Q766" s="35">
         <v>9800</v>
       </c>
-      <c r="X766" s="84" t="s">
-        <v>2088</v>
+      <c r="X766" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y766" s="35">
         <v>99999999</v>
@@ -64518,10 +64652,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="35" t="s">
-        <v>2089</v>
+        <v>2118</v>
       </c>
       <c r="AD766" s="35" t="s">
-        <v>2095</v>
+        <v>2083</v>
+      </c>
+      <c r="AE766" s="115" t="s">
+        <v>2110</v>
       </c>
       <c r="AI766" s="35">
         <v>1</v>
@@ -64547,13 +64684,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="35" t="s">
-        <v>2060</v>
+        <v>2115</v>
       </c>
       <c r="J767" s="35" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K767" s="35" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="M767" s="35">
         <v>-31</v>
@@ -64565,13 +64702,13 @@
         <v>0</v>
       </c>
       <c r="P767" s="35" t="s">
-        <v>1848</v>
+        <v>2098</v>
       </c>
       <c r="Q767" s="35">
         <v>19800</v>
       </c>
-      <c r="X767" s="84" t="s">
-        <v>2088</v>
+      <c r="X767" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y767" s="35">
         <v>99999999</v>
@@ -64586,10 +64723,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="35" t="s">
-        <v>2089</v>
+        <v>2118</v>
       </c>
       <c r="AD767" s="35" t="s">
-        <v>2093</v>
+        <v>2084</v>
+      </c>
+      <c r="AE767" s="115" t="s">
+        <v>2114</v>
       </c>
       <c r="AI767" s="35">
         <v>1</v>
@@ -64615,13 +64755,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J768" s="35" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K768" s="35" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="M768" s="35">
         <v>-31</v>
@@ -64638,8 +64778,8 @@
       <c r="Q768" s="35">
         <v>29800</v>
       </c>
-      <c r="X768" s="84" t="s">
-        <v>2088</v>
+      <c r="X768" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y768" s="35">
         <v>99999999</v>
@@ -64654,10 +64794,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="35" t="s">
-        <v>2089</v>
+        <v>2118</v>
       </c>
       <c r="AD768" s="35" t="s">
-        <v>2094</v>
+        <v>2120</v>
+      </c>
+      <c r="AE768" s="115" t="s">
+        <v>2122</v>
       </c>
       <c r="AI768" s="35">
         <v>1</v>
@@ -64683,13 +64826,13 @@
         <v>1</v>
       </c>
       <c r="G769" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J769" s="35" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K769" s="35" t="s">
-        <v>2080</v>
+        <v>2111</v>
       </c>
       <c r="M769" s="35">
         <v>-31</v>
@@ -64706,8 +64849,8 @@
       <c r="Q769" s="35">
         <v>19800</v>
       </c>
-      <c r="X769" s="84" t="s">
-        <v>2088</v>
+      <c r="X769" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y769" s="35">
         <v>99999999</v>
@@ -64722,10 +64865,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="35" t="s">
-        <v>2089</v>
+        <v>2118</v>
       </c>
       <c r="AD769" s="35" t="s">
-        <v>2093</v>
+        <v>2084</v>
+      </c>
+      <c r="AE769" s="115" t="s">
+        <v>2123</v>
       </c>
       <c r="AI769" s="35">
         <v>1</v>
@@ -64751,13 +64897,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J770" s="35" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="K770" s="35" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="M770" s="35">
         <v>-31</v>
@@ -64769,13 +64915,13 @@
         <v>0</v>
       </c>
       <c r="P770" s="35" t="s">
-        <v>1848</v>
+        <v>2117</v>
       </c>
       <c r="Q770" s="35">
         <v>19800</v>
       </c>
-      <c r="X770" s="84" t="s">
-        <v>2088</v>
+      <c r="X770" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y770" s="35">
         <v>99999999</v>
@@ -64790,10 +64936,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD770" s="35" t="s">
-        <v>2099</v>
+        <v>2084</v>
+      </c>
+      <c r="AE770" s="115" t="s">
+        <v>2113</v>
       </c>
       <c r="AI770" s="35">
         <v>1</v>
@@ -64819,13 +64968,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="35" t="s">
-        <v>2060</v>
+        <v>2115</v>
       </c>
       <c r="J771" s="35" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="K771" s="35" t="s">
-        <v>2087</v>
+        <v>2125</v>
       </c>
       <c r="M771" s="35">
         <v>-31</v>
@@ -64837,13 +64986,13 @@
         <v>0</v>
       </c>
       <c r="P771" s="35" t="s">
-        <v>1848</v>
+        <v>2117</v>
       </c>
       <c r="Q771" s="35">
         <v>49800</v>
       </c>
-      <c r="X771" s="84" t="s">
-        <v>2088</v>
+      <c r="X771" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y771" s="35">
         <v>99999999</v>
@@ -64858,10 +65007,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="35" t="s">
-        <v>2089</v>
+        <v>2118</v>
       </c>
       <c r="AD771" s="35" t="s">
-        <v>2100</v>
+        <v>2126</v>
+      </c>
+      <c r="AE771" s="115" t="s">
+        <v>2127</v>
       </c>
       <c r="AI771" s="35">
         <v>1</v>
@@ -64887,13 +65039,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="35" t="s">
-        <v>2060</v>
+        <v>1876</v>
       </c>
       <c r="J772" s="35" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="K772" s="35" t="s">
-        <v>2087</v>
+        <v>2124</v>
       </c>
       <c r="M772" s="35">
         <v>-31</v>
@@ -64905,13 +65057,13 @@
         <v>0</v>
       </c>
       <c r="P772" s="35" t="s">
-        <v>1848</v>
+        <v>2117</v>
       </c>
       <c r="Q772" s="35">
         <v>49800</v>
       </c>
-      <c r="X772" s="84" t="s">
-        <v>2088</v>
+      <c r="X772" s="35" t="s">
+        <v>2080</v>
       </c>
       <c r="Y772" s="35">
         <v>99999999</v>
@@ -64926,10 +65078,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="35" t="s">
-        <v>2089</v>
+        <v>1853</v>
       </c>
       <c r="AD772" s="35" t="s">
-        <v>2100</v>
+        <v>2086</v>
+      </c>
+      <c r="AE772" s="115" t="s">
+        <v>2128</v>
       </c>
       <c r="AI772" s="35">
         <v>1</v>
@@ -66290,7 +66445,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>2101</v>
+        <v>2087</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -66304,7 +66459,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>2102</v>
+        <v>2088</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -66318,7 +66473,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>2103</v>
+        <v>2089</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -66332,7 +66487,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>2104</v>
+        <v>2090</v>
       </c>
       <c r="C96">
         <v>1</v>
